--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H2">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I2">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J2">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N2">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O2">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P2">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q2">
-        <v>6409.516428659716</v>
+        <v>6708.953411230802</v>
       </c>
       <c r="R2">
-        <v>6409.516428659716</v>
+        <v>26835.81364492321</v>
       </c>
       <c r="S2">
-        <v>0.09082647826929291</v>
+        <v>0.08639945990074246</v>
       </c>
       <c r="T2">
-        <v>0.09082647826929291</v>
+        <v>0.05327322616089265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H3">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I3">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J3">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P3">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q3">
-        <v>1257.584660486272</v>
+        <v>1338.309698636601</v>
       </c>
       <c r="R3">
-        <v>1257.584660486272</v>
+        <v>8029.858191819607</v>
       </c>
       <c r="S3">
-        <v>0.01782068695958352</v>
+        <v>0.01723506306491325</v>
       </c>
       <c r="T3">
-        <v>0.01782068695958352</v>
+        <v>0.01594050611443373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H4">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I4">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J4">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N4">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O4">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P4">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q4">
-        <v>15.96426769432004</v>
+        <v>16.57040807618733</v>
       </c>
       <c r="R4">
-        <v>15.96426769432004</v>
+        <v>99.42244845712401</v>
       </c>
       <c r="S4">
-        <v>0.0002262227157012744</v>
+        <v>0.0002133975629821577</v>
       </c>
       <c r="T4">
-        <v>0.0002262227157012744</v>
+        <v>0.000197368883694274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H5">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I5">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J5">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N5">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O5">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P5">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q5">
-        <v>8.156001234476667</v>
+        <v>9.2521802221355</v>
       </c>
       <c r="R5">
-        <v>8.156001234476667</v>
+        <v>55.513081332813</v>
       </c>
       <c r="S5">
-        <v>0.0001155751572107952</v>
+        <v>0.0001191517253285243</v>
       </c>
       <c r="T5">
-        <v>0.0001155751572107952</v>
+        <v>0.0001102020224115861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H6">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I6">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J6">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N6">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O6">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P6">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q6">
-        <v>4227.463136474194</v>
+        <v>4364.271644834113</v>
       </c>
       <c r="R6">
-        <v>4227.463136474194</v>
+        <v>26185.62986900468</v>
       </c>
       <c r="S6">
-        <v>0.05990554716145734</v>
+        <v>0.05620410365983093</v>
       </c>
       <c r="T6">
-        <v>0.05990554716145734</v>
+        <v>0.05198251115597596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H7">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I7">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J7">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N7">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O7">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P7">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q7">
-        <v>961.1154897085416</v>
+        <v>976.9755414293712</v>
       </c>
       <c r="R7">
-        <v>961.1154897085416</v>
+        <v>3907.902165717485</v>
       </c>
       <c r="S7">
-        <v>0.01361955088373925</v>
+        <v>0.01258171788381036</v>
       </c>
       <c r="T7">
-        <v>0.01361955088373925</v>
+        <v>0.007757788105235798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H8">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I8">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J8">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N8">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O8">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P8">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q8">
-        <v>6547.960421373924</v>
+        <v>7123.277896024486</v>
       </c>
       <c r="R8">
-        <v>6547.960421373924</v>
+        <v>42739.66737614691</v>
       </c>
       <c r="S8">
-        <v>0.09278830806343241</v>
+        <v>0.09173522682526795</v>
       </c>
       <c r="T8">
-        <v>0.09278830806343241</v>
+        <v>0.08484482700234952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H9">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I9">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J9">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P9">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q9">
-        <v>1284.748182650809</v>
+        <v>1420.959620672693</v>
       </c>
       <c r="R9">
-        <v>1284.748182650809</v>
+        <v>12788.63658605424</v>
       </c>
       <c r="S9">
-        <v>0.01820560945460405</v>
+        <v>0.01829944795284569</v>
       </c>
       <c r="T9">
-        <v>0.01820560945460405</v>
+        <v>0.02538741467476319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H10">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I10">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J10">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N10">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O10">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P10">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q10">
-        <v>16.30909198566246</v>
+        <v>17.59374590075689</v>
       </c>
       <c r="R10">
-        <v>16.30909198566246</v>
+        <v>158.343713106812</v>
       </c>
       <c r="S10">
-        <v>0.0002311090712248041</v>
+        <v>0.0002265763451139284</v>
       </c>
       <c r="T10">
-        <v>0.0002311090712248041</v>
+        <v>0.0003143366752768653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H11">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I11">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J11">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N11">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O11">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P11">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q11">
-        <v>8.332168873338478</v>
+        <v>9.823566632024333</v>
       </c>
       <c r="R11">
-        <v>8.332168873338478</v>
+        <v>88.412099688219</v>
       </c>
       <c r="S11">
-        <v>0.0001180715524382556</v>
+        <v>0.0001265101721954198</v>
       </c>
       <c r="T11">
-        <v>0.0001180715524382556</v>
+        <v>0.0001755116444155556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H12">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I12">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J12">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N12">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O12">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P12">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q12">
-        <v>4318.77530989318</v>
+        <v>4633.795740458121</v>
       </c>
       <c r="R12">
-        <v>4318.77530989318</v>
+        <v>41704.16166412309</v>
       </c>
       <c r="S12">
-        <v>0.06119949237980132</v>
+        <v>0.05967509754885814</v>
       </c>
       <c r="T12">
-        <v>0.06119949237980132</v>
+        <v>0.08278918856643508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H13">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I13">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J13">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N13">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O13">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P13">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q13">
-        <v>981.8753500405553</v>
+        <v>1037.310568824426</v>
       </c>
       <c r="R13">
-        <v>981.8753500405553</v>
+        <v>6223.863412946554</v>
       </c>
       <c r="S13">
-        <v>0.0139137298634339</v>
+        <v>0.01335872637686425</v>
       </c>
       <c r="T13">
-        <v>0.0139137298634339</v>
+        <v>0.01235532812902554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H14">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I14">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J14">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N14">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O14">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P14">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q14">
-        <v>6358.65668994834</v>
+        <v>6701.399279550313</v>
       </c>
       <c r="R14">
-        <v>6358.65668994834</v>
+        <v>40208.39567730188</v>
       </c>
       <c r="S14">
-        <v>0.09010576696380421</v>
+        <v>0.08630217603883329</v>
       </c>
       <c r="T14">
-        <v>0.09010576696380421</v>
+        <v>0.07981986254733105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H15">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I15">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J15">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P15">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q15">
-        <v>1247.605681892228</v>
+        <v>1336.802791810292</v>
       </c>
       <c r="R15">
-        <v>1247.605681892228</v>
+        <v>12031.22512629263</v>
       </c>
       <c r="S15">
-        <v>0.01767927918061771</v>
+        <v>0.01721565676888861</v>
       </c>
       <c r="T15">
-        <v>0.01767927918061771</v>
+        <v>0.02388383619092744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H16">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I16">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J16">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N16">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O16">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P16">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q16">
-        <v>15.83759066763812</v>
+        <v>16.55175016683334</v>
       </c>
       <c r="R16">
-        <v>15.83759066763812</v>
+        <v>148.9657515015</v>
       </c>
       <c r="S16">
-        <v>0.0002244276304808516</v>
+        <v>0.0002131572820929859</v>
       </c>
       <c r="T16">
-        <v>0.0002244276304808516</v>
+        <v>0.0002957199761099121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H17">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I17">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J17">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N17">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O17">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P17">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q17">
-        <v>8.091283077290841</v>
+        <v>9.241762473874999</v>
       </c>
       <c r="R17">
-        <v>8.091283077290841</v>
+        <v>83.17586226487501</v>
       </c>
       <c r="S17">
-        <v>0.0001146580642658449</v>
+        <v>0.0001190175631473438</v>
       </c>
       <c r="T17">
-        <v>0.0001146580642658449</v>
+        <v>0.0001651169060939655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H18">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I18">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J18">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N18">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O18">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P18">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q18">
-        <v>4193.918067524583</v>
+        <v>4359.3575724485</v>
       </c>
       <c r="R18">
-        <v>4193.918067524583</v>
+        <v>39234.2181520365</v>
       </c>
       <c r="S18">
-        <v>0.05943019453385968</v>
+        <v>0.05614081909456335</v>
       </c>
       <c r="T18">
-        <v>0.05943019453385968</v>
+        <v>0.07788597001435249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H19">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I19">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J19">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N19">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O19">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P19">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q19">
-        <v>953.4890044312032</v>
+        <v>975.8754887928125</v>
       </c>
       <c r="R19">
-        <v>953.4890044312032</v>
+        <v>5855.252932756875</v>
       </c>
       <c r="S19">
-        <v>0.01351147926756928</v>
+        <v>0.01256755115051602</v>
       </c>
       <c r="T19">
-        <v>0.01351147926756928</v>
+        <v>0.01162357951367714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H20">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I20">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J20">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N20">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O20">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P20">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q20">
-        <v>4516.070915521316</v>
+        <v>5198.751682166903</v>
       </c>
       <c r="R20">
-        <v>4516.070915521316</v>
+        <v>31192.51009300142</v>
       </c>
       <c r="S20">
-        <v>0.06399528286363321</v>
+        <v>0.06695073135332651</v>
       </c>
       <c r="T20">
-        <v>0.06399528286363321</v>
+        <v>0.06192194008713263</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H21">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I21">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J21">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P21">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q21">
-        <v>886.079561889102</v>
+        <v>1037.052930700096</v>
       </c>
       <c r="R21">
-        <v>886.079561889102</v>
+        <v>9333.476376300867</v>
       </c>
       <c r="S21">
-        <v>0.01255624928472398</v>
+        <v>0.01335540845327358</v>
       </c>
       <c r="T21">
-        <v>0.01255624928472398</v>
+        <v>0.01852838913107036</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H22">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I22">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J22">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N22">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O22">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P22">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q22">
-        <v>11.24823780769857</v>
+        <v>12.84036891895289</v>
       </c>
       <c r="R22">
-        <v>11.24823780769857</v>
+        <v>115.563320270576</v>
       </c>
       <c r="S22">
-        <v>0.0001593939009564886</v>
+        <v>0.0001653612525713282</v>
       </c>
       <c r="T22">
-        <v>0.0001593939009564886</v>
+        <v>0.0002294110019594184</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H23">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I23">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J23">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N23">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O23">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P23">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q23">
-        <v>5.746623847827182</v>
+        <v>7.169491952801333</v>
       </c>
       <c r="R23">
-        <v>5.746623847827182</v>
+        <v>64.52542757521199</v>
       </c>
       <c r="S23">
-        <v>8.143291492360202E-05</v>
+        <v>9.23303821797019E-05</v>
       </c>
       <c r="T23">
-        <v>8.143291492360202E-05</v>
+        <v>0.0001280929187326082</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H24">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I24">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J24">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N24">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O24">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P24">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q24">
-        <v>2978.621480975255</v>
+        <v>3381.863483659557</v>
       </c>
       <c r="R24">
-        <v>2978.621480975255</v>
+        <v>30436.77135293601</v>
       </c>
       <c r="S24">
-        <v>0.04220875353475298</v>
+        <v>0.04355242323744572</v>
       </c>
       <c r="T24">
-        <v>0.04220875353475298</v>
+        <v>0.06042168220970215</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H25">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I25">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J25">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N25">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O25">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P25">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q25">
-        <v>677.190823651169</v>
+        <v>757.0559710460233</v>
       </c>
       <c r="R25">
-        <v>677.190823651169</v>
+        <v>4542.335826276139</v>
       </c>
       <c r="S25">
-        <v>0.009596177545234733</v>
+        <v>0.009749542589387096</v>
       </c>
       <c r="T25">
-        <v>0.009596177545234733</v>
+        <v>0.009017236703673139</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H26">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I26">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J26">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N26">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O26">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P26">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q26">
-        <v>6056.08417966407</v>
+        <v>7109.748037498523</v>
       </c>
       <c r="R26">
-        <v>6056.08417966407</v>
+        <v>42658.48822499114</v>
       </c>
       <c r="S26">
-        <v>0.08581814311010168</v>
+        <v>0.09156098616543272</v>
       </c>
       <c r="T26">
-        <v>0.08581814311010168</v>
+        <v>0.08468367387555065</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H27">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I27">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J27">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P27">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q27">
-        <v>1188.239183365617</v>
+        <v>1418.260669021581</v>
       </c>
       <c r="R27">
-        <v>1188.239183365617</v>
+        <v>12764.34602119423</v>
       </c>
       <c r="S27">
-        <v>0.01683802227015233</v>
+        <v>0.0182646902267652</v>
       </c>
       <c r="T27">
-        <v>0.01683802227015233</v>
+        <v>0.02533919415972738</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H28">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I28">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J28">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N28">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O28">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P28">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q28">
-        <v>15.08396929777597</v>
+        <v>17.560328575692</v>
       </c>
       <c r="R28">
-        <v>15.08396929777597</v>
+        <v>158.042957181228</v>
       </c>
       <c r="S28">
-        <v>0.0002137483888040543</v>
+        <v>0.0002261459890419812</v>
       </c>
       <c r="T28">
-        <v>0.0002137483888040543</v>
+        <v>0.0003137396284105074</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H29">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I29">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J29">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N29">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O29">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P29">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q29">
-        <v>7.706264676158005</v>
+        <v>9.804907881279</v>
       </c>
       <c r="R29">
-        <v>7.706264676158005</v>
+        <v>88.24417093151101</v>
       </c>
       <c r="S29">
-        <v>0.0001092021354398567</v>
+        <v>0.0001262698804706151</v>
       </c>
       <c r="T29">
-        <v>0.0001092021354398567</v>
+        <v>0.0001751782799514334</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H30">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I30">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J30">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N30">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O30">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P30">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q30">
-        <v>3994.353225531553</v>
+        <v>4624.994370959172</v>
       </c>
       <c r="R30">
-        <v>3994.353225531553</v>
+        <v>41624.94933863255</v>
       </c>
       <c r="S30">
-        <v>0.0566022476853975</v>
+        <v>0.05956175146870454</v>
       </c>
       <c r="T30">
-        <v>0.0566022476853975</v>
+        <v>0.08263193989171914</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H31">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I31">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J31">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N31">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O31">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P31">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q31">
-        <v>908.117855198496</v>
+        <v>1035.340315038382</v>
       </c>
       <c r="R31">
-        <v>908.117855198496</v>
+        <v>6212.041890230295</v>
       </c>
       <c r="S31">
-        <v>0.01286854438383749</v>
+        <v>0.01333335299109941</v>
       </c>
       <c r="T31">
-        <v>0.01286854438383749</v>
+        <v>0.01233186058443896</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H32">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I32">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J32">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N32">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O32">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P32">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q32">
-        <v>5229.64358539674</v>
+        <v>5993.418341940146</v>
       </c>
       <c r="R32">
-        <v>5229.64358539674</v>
+        <v>23973.67336776058</v>
       </c>
       <c r="S32">
-        <v>0.07410701177725332</v>
+        <v>0.07718463312563578</v>
       </c>
       <c r="T32">
-        <v>0.07410701177725332</v>
+        <v>0.04759143658272089</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H33">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I33">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J33">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P33">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q33">
-        <v>1026.086698740332</v>
+        <v>1195.573944749377</v>
       </c>
       <c r="R33">
-        <v>1026.086698740332</v>
+        <v>7173.443668496259</v>
       </c>
       <c r="S33">
-        <v>0.01454022971668041</v>
+        <v>0.01539687888200668</v>
       </c>
       <c r="T33">
-        <v>0.01454022971668041</v>
+        <v>0.01424039129055885</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H34">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I34">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J34">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N34">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O34">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P34">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q34">
-        <v>13.02554273359046</v>
+        <v>14.803111843198</v>
       </c>
       <c r="R34">
-        <v>13.02554273359046</v>
+        <v>88.81867105918801</v>
       </c>
       <c r="S34">
-        <v>0.0001845793184565702</v>
+        <v>0.0001906379117138562</v>
       </c>
       <c r="T34">
-        <v>0.0001845793184565702</v>
+        <v>0.0001763187512498316</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H35">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I35">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J35">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N35">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O35">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P35">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q35">
-        <v>6.65463299971413</v>
+        <v>8.265400465213499</v>
       </c>
       <c r="R35">
-        <v>6.65463299971413</v>
+        <v>49.592402791281</v>
       </c>
       <c r="S35">
-        <v>9.42999189199432E-05</v>
+        <v>0.0001064437464809851</v>
       </c>
       <c r="T35">
-        <v>9.42999189199432E-05</v>
+        <v>9.844856298075388E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H36">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I36">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J36">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N36">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O36">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P36">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q36">
-        <v>3449.265747304817</v>
+        <v>3898.805688763818</v>
       </c>
       <c r="R36">
-        <v>3449.265747304817</v>
+        <v>23392.83413258291</v>
       </c>
       <c r="S36">
-        <v>0.04887804937073978</v>
+        <v>0.05020972499275976</v>
       </c>
       <c r="T36">
-        <v>0.04887804937073978</v>
+        <v>0.04643838117891746</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H37">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I37">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J37">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N37">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O37">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P37">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q37">
-        <v>784.1919919426375</v>
+        <v>872.7774319952363</v>
       </c>
       <c r="R37">
-        <v>784.1919919426375</v>
+        <v>3491.109727980945</v>
       </c>
       <c r="S37">
-        <v>0.01111244470747465</v>
+        <v>0.01123983043491002</v>
       </c>
       <c r="T37">
-        <v>0.01111244470747465</v>
+        <v>0.006930390878102012</v>
       </c>
     </row>
   </sheetData>
